--- a/Training/39276-2019-Muenchow.xlsx
+++ b/Training/39276-2019-Muenchow.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\SoftwareProjects\espn-fantasy-football\Training2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\glase\SoftwareProjects\espn-fantasy-football\Training\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2D5194-792E-4F6B-AA36-C147986E1026}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDF42AF-D014-48D0-9C30-FB28C6F6ACBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2544" yWindow="2544" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Draft+Results" sheetId="1" r:id="rId1"/>
@@ -1845,13 +1845,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E205"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="E169" sqref="E169"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>16.777000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1959,7 +1959,7 @@
         <v>25.824999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>14.821</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>17.794</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>14.42</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>18.756</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2169,7 +2169,7 @@
         <v>12.132999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>14.266999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>14.824999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>7.6829999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>12.994</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>14.973000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>12.863</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2414,7 +2414,7 @@
         <v>12.85</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>18.992999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2484,7 +2484,7 @@
         <v>10.218999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>13.275</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>13.593</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2589,7 +2589,7 @@
         <v>12.007</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>15.323</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>13.093999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>13.968999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>14.273</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>12.837999999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2834,7 +2834,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>14.1</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>9.94</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>12.856999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2974,7 +2974,7 @@
         <v>19.04</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3009,7 +3009,7 @@
         <v>11.464</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3044,7 +3044,7 @@
         <v>11.44</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>18.143999999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>13.317</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>12.938000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>19.986000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>6.8929999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>12.526999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>9.8689999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3324,7 +3324,7 @@
         <v>13.468999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>12.45</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3394,7 +3394,7 @@
         <v>12.04</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3429,7 +3429,7 @@
         <v>13.968999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3499,7 +3499,7 @@
         <v>12.137</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>16.649999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>10.26</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3639,7 +3639,7 @@
         <v>10.92</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3674,7 +3674,7 @@
         <v>10.07</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3709,7 +3709,7 @@
         <v>10.429</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3744,7 +3744,7 @@
         <v>9.1620000000000008</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3779,7 +3779,7 @@
         <v>12.731</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>12.467000000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>11.119</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>12.869</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>10.925000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3954,7 +3954,7 @@
         <v>10.78</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>11.263</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4024,7 +4024,7 @@
         <v>5.4729999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4059,7 +4059,7 @@
         <v>11.33</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4129,7 +4129,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4164,7 +4164,7 @@
         <v>8.2469999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>10.225</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>7.7750000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>12.244</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>13.513999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>8.0359999999999996</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>10.323</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>8.7620000000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>8.5190000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4479,7 +4479,7 @@
         <v>8.9209999999999994</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>4.7789999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>20.96</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>12.106</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4619,7 +4619,7 @@
         <v>16.956</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>9.9550000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>16.437999999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>12.531000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>17.38</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>7.5439999999999996</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>7.13</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4864,7 +4864,7 @@
         <v>5.4470000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4899,7 +4899,7 @@
         <v>13.756</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>9.2289999999999992</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>7.9</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>4.6070000000000002</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>16.768999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>6.24</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>6.2859999999999996</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>8.7210000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>20.606000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5214,7 +5214,7 @@
         <v>12.836</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>9.0440000000000005</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5284,7 +5284,7 @@
         <v>10.64</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>11.619</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5354,7 +5354,7 @@
         <v>6.7809999999999997</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>7.2149999999999999</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5424,7 +5424,7 @@
         <v>8.7439999999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>5.9939999999999998</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>8.0459999999999994</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5529,7 +5529,7 @@
         <v>3.65</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>4.444</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5634,7 +5634,7 @@
         <v>9.9190000000000005</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>2.5819999999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>3.7330000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5739,7 +5739,7 @@
         <v>7.4329999999999998</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>1.569</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>4.6440000000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>9.8810000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>3.15</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>10.8</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>4.05</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>11.862</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>0.47499999999999998</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -6054,7 +6054,7 @@
         <v>5.3920000000000003</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>6.9790000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>11.117000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>19.963999999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -6194,7 +6194,7 @@
         <v>6.35</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>11.609</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -6264,7 +6264,7 @@
         <v>17.274999999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>6.3440000000000003</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>5.6669999999999998</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>14.811999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>20.074999999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>15.962999999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -6509,7 +6509,7 @@
         <v>9.2330000000000005</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -6544,7 +6544,7 @@
         <v>11.68</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>3.8460000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>3.1059999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -6649,7 +6649,7 @@
         <v>3.363</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -6684,7 +6684,7 @@
         <v>5.6440000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>12.247</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -6754,7 +6754,7 @@
         <v>5.9379999999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>14.305999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>4.9379999999999997</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -6894,7 +6894,7 @@
         <v>8.8140000000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>27.04</v>
       </c>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>0.76900000000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>13.153</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>10.125</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -7104,7 +7104,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -7139,7 +7139,7 @@
         <v>8.1880000000000006</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -7209,7 +7209,7 @@
         <v>1.613</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>7.9379999999999997</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>5.1619999999999999</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -7314,7 +7314,7 @@
         <v>8.25</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>6.3070000000000004</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -7384,7 +7384,7 @@
         <v>6.6559999999999997</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>1.925</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -7454,7 +7454,7 @@
         <v>6.6879999999999997</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>9.9380000000000006</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -7559,7 +7559,7 @@
         <v>14.061999999999999</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>3.077</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -7629,7 +7629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>9.4250000000000007</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>0.76900000000000002</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -7734,7 +7734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>14</v>
       </c>
       <c r="E169" s="2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F169" t="s">
         <v>353</v>
@@ -7769,7 +7769,7 @@
         <v>18.75</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>5.0620000000000003</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>2.8439999999999999</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -7874,7 +7874,7 @@
         <v>3.3380000000000001</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -7909,7 +7909,7 @@
         <v>10.363</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>2.15</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>6.5620000000000003</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -8014,7 +8014,7 @@
         <v>3.077</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -8049,7 +8049,7 @@
         <v>4.7709999999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>8.3079999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -8119,7 +8119,7 @@
         <v>4.8769999999999998</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -8154,7 +8154,7 @@
         <v>7.625</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -8189,7 +8189,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>7.3120000000000003</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -8329,7 +8329,7 @@
         <v>-2.3079999999999998</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -8399,7 +8399,7 @@
         <v>9.0570000000000004</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -8434,7 +8434,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -8469,7 +8469,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -8504,7 +8504,7 @@
         <v>11.311999999999999</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>7.3079999999999998</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -8574,7 +8574,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>6.4550000000000001</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -8644,7 +8644,7 @@
         <v>1.538</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -8679,7 +8679,7 @@
         <v>12.62</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -8714,7 +8714,7 @@
         <v>5.8879999999999999</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -8784,7 +8784,7 @@
         <v>-1.538</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -8819,7 +8819,7 @@
         <v>3.8140000000000001</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>10.087</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>-0.76900000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>201</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>15.753</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>202</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>2.3079999999999998</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>203</v>
       </c>
@@ -8994,7 +8994,7 @@
         <v>10.707000000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>204</v>
       </c>
